--- a/biology/Zoologie/Ammonitina/Ammonitina.xlsx
+++ b/biology/Zoologie/Ammonitina/Ammonitina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ammonitina forme un sous-ordre de mollusques céphalopodes marins aujourd’hui éteints.
 Le sous-ordre des Ammonitina se rattache à l’ordre des Ammonitida et à sous-classe des Ammonoidea.
@@ -512,15 +524,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ordre des Ammonitida comprend quatre sous-ordres:
 Ammonitina ;
 Phylloceratina ;
 Lytoceratina ;
 Ancyloceratina.
-Parmi ceux-ci, les Ammonitina présentent le plus grand nombre et la plus grande diversité de formes et d’ornementation des coquilles (côtes, tubercules…)[1]. Ce sont les fossiles stratigraphiques par excellence des systèmes du Jurassique et du Crétacé.
-Les Ammonitina apparaissent au Jurassique inférieur. Elles sont issues des Phylloceratina et des Lytoceratina apparues quelques millions d’années auparavant à la fin du Trias[2].
+Parmi ceux-ci, les Ammonitina présentent le plus grand nombre et la plus grande diversité de formes et d’ornementation des coquilles (côtes, tubercules…). Ce sont les fossiles stratigraphiques par excellence des systèmes du Jurassique et du Crétacé.
+Les Ammonitina apparaissent au Jurassique inférieur. Elles sont issues des Phylloceratina et des Lytoceratina apparues quelques millions d’années auparavant à la fin du Trias.
 </t>
         </is>
       </c>
@@ -549,11 +563,13 @@
           <t>Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ammonitina sont des fossiles caractéristiques du Jurassique et du Crétacé[3].
-Leur grand intérêt stratigraphique en a fait un sujet d’études essentiel parmi les mollusques marins fossiles[2].
-Après avoir proliféré dans les océans pendant plus de 150 millions d’années, elles  disparaissent lors de l'extinction massive de la fin du Crétacé en même temps que les dinosaures, il y a 66 millions d’années[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ammonitina sont des fossiles caractéristiques du Jurassique et du Crétacé.
+Leur grand intérêt stratigraphique en a fait un sujet d’études essentiel parmi les mollusques marins fossiles.
+Après avoir proliféré dans les océans pendant plus de 150 millions d’années, elles  disparaissent lors de l'extinction massive de la fin du Crétacé en même temps que les dinosaures, il y a 66 millions d’années.
 </t>
         </is>
       </c>
@@ -582,11 +598,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le terme « ammonite », qui n’a pas de valeur taxonomique, désigne généralement parmi les ammonoïdés, les Ammonitida, animaux  d’âge essentiellement jurassique et crétacé. Parmi ces dernières, les Ammonitina sont les plus utilisées en biostratigraphie.
-Liste des super-familles et familles
-sous-ordre Ammonitina
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « ammonite », qui n’a pas de valeur taxonomique, désigne généralement parmi les ammonoïdés, les Ammonitida, animaux  d’âge essentiellement jurassique et crétacé. Parmi ces dernières, les Ammonitina sont les plus utilisées en biostratigraphie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ammonitina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ammonitina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des super-familles et familles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sous-ordre Ammonitina
 super-famille Acanthoceratoidea ou Acanthocerataceae
 famille Acanthoceratidae
 famille Brancoceratidae
